--- a/xlsx/middle_thousand_commits.xlsx
+++ b/xlsx/middle_thousand_commits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\PycharmProjects\miningMatplotlib\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1198D-A84A-4793-8496-BE480A7DADB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68084542-7830-476F-8DAF-54ED14F222FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="middle_thousand_commits" sheetId="1" r:id="rId1"/>
@@ -10587,13 +10587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K414" sqref="K414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -33633,6 +33636,12 @@
         <v>334</v>
       </c>
     </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1002">
+        <f>AVERAGE(F1:F1001)</f>
+        <v>6095756.0530000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
